--- a/src/main/resources/DataList/WC8-3N-1(1-5).xlsx
+++ b/src/main/resources/DataList/WC8-3N-1(1-5).xlsx
@@ -8,18 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="插值数据表" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="4">
   <si>
     <t xml:space="preserve">WC8-3N-1 </t>
   </si>
   <si>
     <t>1-5</t>
+  </si>
+  <si>
+    <t>井号</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
 </sst>
 </file>
@@ -1529,4 +1536,381 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:BH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X1" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.356666666666667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.658275862068969</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.252222222222223</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.899310344827587</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.4148621190130624</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9395355587808417</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5592743105950653</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.14358038768529074</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0979703534777651</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.052360319270239444</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.015872291904218877</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.015819209039548</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0440677966101695</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.07231638418079099</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.07523035230352301</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.06439024390243901</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.05535682023486901</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.046323396567299</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03993141289437586</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.039108367626886145</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03842249657064472</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.037736625514403294</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.03718792866941015</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.03636488340192044</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.03567901234567901</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.03499314128943758</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.034444444444444444</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.03362139917695473</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.032935528120713306</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.03224965706447188</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.03170096021947874</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.030877914951989025</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0301920438957476</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.02907928388746803</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.01884910485933504</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.005836065573770494</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.15081223628691984</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.16634615384615387</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.16225450081833062</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.13669046073977936</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.08477611940298506</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.03286177806619078</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>